--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H2">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J2">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93069837958126</v>
+        <v>2.956431333333333</v>
       </c>
       <c r="N2">
-        <v>2.93069837958126</v>
+        <v>8.869294</v>
       </c>
       <c r="O2">
-        <v>0.06193015099277388</v>
+        <v>0.06161326453142597</v>
       </c>
       <c r="P2">
-        <v>0.06193015099277388</v>
+        <v>0.06161326453142598</v>
       </c>
       <c r="Q2">
-        <v>1.122287181308338</v>
+        <v>6.694080922434889</v>
       </c>
       <c r="R2">
-        <v>1.122287181308338</v>
+        <v>60.246728301914</v>
       </c>
       <c r="S2">
-        <v>0.006991727308030227</v>
+        <v>0.02535371586548561</v>
       </c>
       <c r="T2">
-        <v>0.006991727308030227</v>
+        <v>0.02535371586548562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H3">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I3">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J3">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.7219876892384</v>
+        <v>40.76140833333334</v>
       </c>
       <c r="N3">
-        <v>40.7219876892384</v>
+        <v>122.284225</v>
       </c>
       <c r="O3">
-        <v>0.8605180471286665</v>
+        <v>0.8494847845776018</v>
       </c>
       <c r="P3">
-        <v>0.8605180471286665</v>
+        <v>0.8494847845776018</v>
       </c>
       <c r="Q3">
-        <v>15.59415499713011</v>
+        <v>92.29376066316391</v>
       </c>
       <c r="R3">
-        <v>15.59415499713011</v>
+        <v>830.6438459684751</v>
       </c>
       <c r="S3">
-        <v>0.0971498927858961</v>
+        <v>0.3495610243026236</v>
       </c>
       <c r="T3">
-        <v>0.0971498927858961</v>
+        <v>0.3495610243026236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.382941891641777</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H4">
-        <v>0.382941891641777</v>
+        <v>6.792731</v>
       </c>
       <c r="I4">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J4">
-        <v>0.112896984682728</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.66995617571837</v>
+        <v>0.007557333333333333</v>
       </c>
       <c r="N4">
-        <v>3.66995617571837</v>
+        <v>0.022672</v>
       </c>
       <c r="O4">
-        <v>0.07755180187855965</v>
+        <v>0.0001574979850094596</v>
       </c>
       <c r="P4">
-        <v>0.07755180187855965</v>
+        <v>0.0001574979850094596</v>
       </c>
       <c r="Q4">
-        <v>1.405379960172014</v>
+        <v>0.01711164413688889</v>
       </c>
       <c r="R4">
-        <v>1.405379960172014</v>
+        <v>0.154004797232</v>
       </c>
       <c r="S4">
-        <v>0.008755364588801707</v>
+        <v>6.481005659551819E-05</v>
       </c>
       <c r="T4">
-        <v>0.008755364588801707</v>
+        <v>6.481005659551819E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.01421531966751</v>
+        <v>2.264243666666667</v>
       </c>
       <c r="H5">
-        <v>2.01421531966751</v>
+        <v>6.792731</v>
       </c>
       <c r="I5">
-        <v>0.5938207363976236</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="J5">
-        <v>0.5938207363976236</v>
+        <v>0.4114976873616865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.93069837958126</v>
+        <v>4.258285666666667</v>
       </c>
       <c r="N5">
-        <v>2.93069837958126</v>
+        <v>12.774857</v>
       </c>
       <c r="O5">
-        <v>0.06193015099277388</v>
+        <v>0.08874445290596285</v>
       </c>
       <c r="P5">
-        <v>0.06193015099277388</v>
+        <v>0.08874445290596285</v>
       </c>
       <c r="Q5">
-        <v>5.90305757347732</v>
+        <v>9.641796351607445</v>
       </c>
       <c r="R5">
-        <v>5.90305757347732</v>
+        <v>86.776167164467</v>
       </c>
       <c r="S5">
-        <v>0.036775407867745</v>
+        <v>0.03651813713698181</v>
       </c>
       <c r="T5">
-        <v>0.036775407867745</v>
+        <v>0.03651813713698181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H6">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J6">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.7219876892384</v>
+        <v>2.956431333333333</v>
       </c>
       <c r="N6">
-        <v>40.7219876892384</v>
+        <v>8.869294</v>
       </c>
       <c r="O6">
-        <v>0.8605180471286665</v>
+        <v>0.06161326453142597</v>
       </c>
       <c r="P6">
-        <v>0.8605180471286665</v>
+        <v>0.06161326453142598</v>
       </c>
       <c r="Q6">
-        <v>82.02285145097572</v>
+        <v>6.176661092631555</v>
       </c>
       <c r="R6">
-        <v>82.02285145097572</v>
+        <v>55.589949833684</v>
       </c>
       <c r="S6">
-        <v>0.5109934604293896</v>
+        <v>0.02339399719760463</v>
       </c>
       <c r="T6">
-        <v>0.5109934604293896</v>
+        <v>0.02339399719760463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.01421531966751</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H7">
-        <v>2.01421531966751</v>
+        <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J7">
-        <v>0.5938207363976236</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.66995617571837</v>
+        <v>40.76140833333334</v>
       </c>
       <c r="N7">
-        <v>3.66995617571837</v>
+        <v>122.284225</v>
       </c>
       <c r="O7">
-        <v>0.07755180187855965</v>
+        <v>0.8494847845776018</v>
       </c>
       <c r="P7">
-        <v>0.07755180187855965</v>
+        <v>0.8494847845776018</v>
       </c>
       <c r="Q7">
-        <v>7.392081951640328</v>
+        <v>85.15990278370558</v>
       </c>
       <c r="R7">
-        <v>7.392081951640328</v>
+        <v>766.4391250533502</v>
       </c>
       <c r="S7">
-        <v>0.0460518681004889</v>
+        <v>0.3225416608087695</v>
       </c>
       <c r="T7">
-        <v>0.0460518681004889</v>
+        <v>0.3225416608087695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.175545146164755</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H8">
-        <v>0.175545146164755</v>
+        <v>6.267686</v>
       </c>
       <c r="I8">
-        <v>0.05175332892602105</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J8">
-        <v>0.05175332892602105</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.93069837958126</v>
+        <v>0.007557333333333333</v>
       </c>
       <c r="N8">
-        <v>2.93069837958126</v>
+        <v>0.022672</v>
       </c>
       <c r="O8">
-        <v>0.06193015099277388</v>
+        <v>0.0001574979850094596</v>
       </c>
       <c r="P8">
-        <v>0.06193015099277388</v>
+        <v>0.0001574979850094596</v>
       </c>
       <c r="Q8">
-        <v>0.5144698754084028</v>
+        <v>0.01578899744355556</v>
       </c>
       <c r="R8">
-        <v>0.5144698754084028</v>
+        <v>0.142100976992</v>
       </c>
       <c r="S8">
-        <v>0.003205091474767176</v>
+        <v>5.980055509086655E-05</v>
       </c>
       <c r="T8">
-        <v>0.003205091474767176</v>
+        <v>5.980055509086655E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.175545146164755</v>
+        <v>2.089228666666667</v>
       </c>
       <c r="H9">
-        <v>0.175545146164755</v>
+        <v>6.267686</v>
       </c>
       <c r="I9">
-        <v>0.05175332892602105</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="J9">
-        <v>0.05175332892602105</v>
+        <v>0.3796909216792509</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.7219876892384</v>
+        <v>4.258285666666667</v>
       </c>
       <c r="N9">
-        <v>40.7219876892384</v>
+        <v>12.774857</v>
       </c>
       <c r="O9">
-        <v>0.8605180471286665</v>
+        <v>0.08874445290596285</v>
       </c>
       <c r="P9">
-        <v>0.8605180471286665</v>
+        <v>0.08874445290596285</v>
       </c>
       <c r="Q9">
-        <v>7.148547281026708</v>
+        <v>8.896532485655777</v>
       </c>
       <c r="R9">
-        <v>7.148547281026708</v>
+        <v>80.068792370902</v>
       </c>
       <c r="S9">
-        <v>0.04453467353982717</v>
+        <v>0.03369546311778591</v>
       </c>
       <c r="T9">
-        <v>0.04453467353982717</v>
+        <v>0.03369546311778591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.175545146164755</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H10">
-        <v>0.175545146164755</v>
+        <v>0.571622</v>
       </c>
       <c r="I10">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J10">
-        <v>0.05175332892602105</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.66995617571837</v>
+        <v>2.956431333333333</v>
       </c>
       <c r="N10">
-        <v>3.66995617571837</v>
+        <v>8.869294</v>
       </c>
       <c r="O10">
-        <v>0.07755180187855965</v>
+        <v>0.06161326453142597</v>
       </c>
       <c r="P10">
-        <v>0.07755180187855965</v>
+        <v>0.06161326453142598</v>
       </c>
       <c r="Q10">
-        <v>0.6442429932847266</v>
+        <v>0.5633203972075556</v>
       </c>
       <c r="R10">
-        <v>0.6442429932847266</v>
+        <v>5.069883574867999</v>
       </c>
       <c r="S10">
-        <v>0.004013563911426715</v>
+        <v>0.002133566274074539</v>
       </c>
       <c r="T10">
-        <v>0.004013563911426715</v>
+        <v>0.002133566274074539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.819256185244795</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H11">
-        <v>0.819256185244795</v>
+        <v>0.571622</v>
       </c>
       <c r="I11">
-        <v>0.2415289499936274</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J11">
-        <v>0.2415289499936274</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.93069837958126</v>
+        <v>40.76140833333334</v>
       </c>
       <c r="N11">
-        <v>2.93069837958126</v>
+        <v>122.284225</v>
       </c>
       <c r="O11">
-        <v>0.06193015099277388</v>
+        <v>0.8494847845776018</v>
       </c>
       <c r="P11">
-        <v>0.06193015099277388</v>
+        <v>0.8494847845776018</v>
       </c>
       <c r="Q11">
-        <v>2.400992774558845</v>
+        <v>7.766705918105557</v>
       </c>
       <c r="R11">
-        <v>2.400992774558845</v>
+        <v>69.90035326295001</v>
       </c>
       <c r="S11">
-        <v>0.01495792434223147</v>
+        <v>0.02941626450891612</v>
       </c>
       <c r="T11">
-        <v>0.01495792434223147</v>
+        <v>0.02941626450891612</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.819256185244795</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H12">
-        <v>0.819256185244795</v>
+        <v>0.571622</v>
       </c>
       <c r="I12">
-        <v>0.2415289499936274</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J12">
-        <v>0.2415289499936274</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>40.7219876892384</v>
+        <v>0.007557333333333333</v>
       </c>
       <c r="N12">
-        <v>40.7219876892384</v>
+        <v>0.022672</v>
       </c>
       <c r="O12">
-        <v>0.8605180471286665</v>
+        <v>0.0001574979850094596</v>
       </c>
       <c r="P12">
-        <v>0.8605180471286665</v>
+        <v>0.0001574979850094596</v>
       </c>
       <c r="Q12">
-        <v>33.36174028987096</v>
+        <v>0.001439979331555555</v>
       </c>
       <c r="R12">
-        <v>33.36174028987096</v>
+        <v>0.012959813984</v>
       </c>
       <c r="S12">
-        <v>0.2078400203735536</v>
+        <v>5.453896845207516E-06</v>
       </c>
       <c r="T12">
-        <v>0.2078400203735536</v>
+        <v>5.453896845207516E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.819256185244795</v>
+        <v>0.1905406666666667</v>
       </c>
       <c r="H13">
-        <v>0.819256185244795</v>
+        <v>0.571622</v>
       </c>
       <c r="I13">
-        <v>0.2415289499936274</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="J13">
-        <v>0.2415289499936274</v>
+        <v>0.03462835949856721</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.66995617571837</v>
+        <v>4.258285666666667</v>
       </c>
       <c r="N13">
-        <v>3.66995617571837</v>
+        <v>12.774857</v>
       </c>
       <c r="O13">
-        <v>0.07755180187855965</v>
+        <v>0.08874445290596285</v>
       </c>
       <c r="P13">
-        <v>0.07755180187855965</v>
+        <v>0.08874445290596285</v>
       </c>
       <c r="Q13">
-        <v>3.006634296534608</v>
+        <v>0.8113765897837778</v>
       </c>
       <c r="R13">
-        <v>3.006634296534608</v>
+        <v>7.302389308053999</v>
       </c>
       <c r="S13">
-        <v>0.01873100527784233</v>
+        <v>0.003073074818731349</v>
       </c>
       <c r="T13">
-        <v>0.01873100527784233</v>
+        <v>0.003073074818731349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9584326666666668</v>
+      </c>
+      <c r="H14">
+        <v>2.875298</v>
+      </c>
+      <c r="I14">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="J14">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.956431333333333</v>
+      </c>
+      <c r="N14">
+        <v>8.869294</v>
+      </c>
+      <c r="O14">
+        <v>0.06161326453142597</v>
+      </c>
+      <c r="P14">
+        <v>0.06161326453142598</v>
+      </c>
+      <c r="Q14">
+        <v>2.833540366623556</v>
+      </c>
+      <c r="R14">
+        <v>25.501863299612</v>
+      </c>
+      <c r="S14">
+        <v>0.0107319851942612</v>
+      </c>
+      <c r="T14">
+        <v>0.0107319851942612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9584326666666668</v>
+      </c>
+      <c r="H15">
+        <v>2.875298</v>
+      </c>
+      <c r="I15">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="J15">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>40.76140833333334</v>
+      </c>
+      <c r="N15">
+        <v>122.284225</v>
+      </c>
+      <c r="O15">
+        <v>0.8494847845776018</v>
+      </c>
+      <c r="P15">
+        <v>0.8494847845776018</v>
+      </c>
+      <c r="Q15">
+        <v>39.06706528600557</v>
+      </c>
+      <c r="R15">
+        <v>351.6035875740501</v>
+      </c>
+      <c r="S15">
+        <v>0.1479658349572926</v>
+      </c>
+      <c r="T15">
+        <v>0.1479658349572926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9584326666666668</v>
+      </c>
+      <c r="H16">
+        <v>2.875298</v>
+      </c>
+      <c r="I16">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="J16">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.007557333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.022672</v>
+      </c>
+      <c r="O16">
+        <v>0.0001574979850094596</v>
+      </c>
+      <c r="P16">
+        <v>0.0001574979850094596</v>
+      </c>
+      <c r="Q16">
+        <v>0.007243195139555557</v>
+      </c>
+      <c r="R16">
+        <v>0.06518875625600001</v>
+      </c>
+      <c r="S16">
+        <v>2.743347647786734E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.743347647786734E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9584326666666668</v>
+      </c>
+      <c r="H17">
+        <v>2.875298</v>
+      </c>
+      <c r="I17">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="J17">
+        <v>0.1741830314604954</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.258285666666667</v>
+      </c>
+      <c r="N17">
+        <v>12.774857</v>
+      </c>
+      <c r="O17">
+        <v>0.08874445290596285</v>
+      </c>
+      <c r="P17">
+        <v>0.08874445290596285</v>
+      </c>
+      <c r="Q17">
+        <v>4.081280086931779</v>
+      </c>
+      <c r="R17">
+        <v>36.731520782386</v>
+      </c>
+      <c r="S17">
+        <v>0.01545777783246378</v>
+      </c>
+      <c r="T17">
+        <v>0.01545777783246378</v>
       </c>
     </row>
   </sheetData>
